--- a/Code/Results/Cases/Case_7_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.237219593814132</v>
+        <v>0.8648146295959975</v>
       </c>
       <c r="C2">
-        <v>0.4980537226410604</v>
+        <v>0.1122140985924744</v>
       </c>
       <c r="D2">
-        <v>0.01659432644270575</v>
+        <v>0.05861455575954722</v>
       </c>
       <c r="E2">
-        <v>0.208554498284947</v>
+        <v>0.3345300597290048</v>
       </c>
       <c r="F2">
-        <v>1.347139372072633</v>
+        <v>0.5323436695109436</v>
       </c>
       <c r="G2">
-        <v>0.0007841911597773791</v>
+        <v>0.0008015266456941548</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6101676068930786</v>
+        <v>0.8804441751741194</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9203766807349396</v>
+        <v>0.5964040172968978</v>
       </c>
       <c r="N2">
-        <v>0.795453422326176</v>
+        <v>0.7386449256281349</v>
       </c>
       <c r="O2">
-        <v>1.025220413665068</v>
+        <v>1.569298472279229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.932479573600119</v>
+        <v>0.7509544579644682</v>
       </c>
       <c r="C3">
-        <v>0.4309144104446148</v>
+        <v>0.1011297602749579</v>
       </c>
       <c r="D3">
-        <v>0.01786833419192657</v>
+        <v>0.05320379437258538</v>
       </c>
       <c r="E3">
-        <v>0.1806962548974838</v>
+        <v>0.2908796189307381</v>
       </c>
       <c r="F3">
-        <v>1.212919420362098</v>
+        <v>0.5013253287905144</v>
       </c>
       <c r="G3">
-        <v>0.0007911185456308686</v>
+        <v>0.0008051746774312313</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5267908352087289</v>
+        <v>0.7665515304890107</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7939396416911251</v>
+        <v>0.5163035025562692</v>
       </c>
       <c r="N3">
-        <v>0.8342939805047394</v>
+        <v>0.7787714897229883</v>
       </c>
       <c r="O3">
-        <v>0.9301602650384098</v>
+        <v>1.513813208619041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.747567231681245</v>
+        <v>0.6812377095076556</v>
       </c>
       <c r="C4">
-        <v>0.390105291431837</v>
+        <v>0.09431392319705623</v>
       </c>
       <c r="D4">
-        <v>0.01867312118667064</v>
+        <v>0.04986588496335287</v>
       </c>
       <c r="E4">
-        <v>0.1640160182611226</v>
+        <v>0.2645505904221324</v>
       </c>
       <c r="F4">
-        <v>1.13341936474886</v>
+        <v>0.4832517495110267</v>
       </c>
       <c r="G4">
-        <v>0.0007954895542334376</v>
+        <v>0.0008074889764344835</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4761742860828591</v>
+        <v>0.6967293876708851</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7175018210818536</v>
+        <v>0.4675520906842507</v>
       </c>
       <c r="N4">
-        <v>0.8597414165635229</v>
+        <v>0.8045013534740111</v>
       </c>
       <c r="O4">
-        <v>0.8741316752682877</v>
+        <v>1.482858884161359</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.672685280139831</v>
+        <v>0.6528647917829744</v>
       </c>
       <c r="C5">
-        <v>0.3735608461843185</v>
+        <v>0.09153297113518022</v>
       </c>
       <c r="D5">
-        <v>0.01900643083699638</v>
+        <v>0.04850153056852946</v>
       </c>
       <c r="E5">
-        <v>0.1573121253005425</v>
+        <v>0.2539271438218833</v>
       </c>
       <c r="F5">
-        <v>1.101685067060785</v>
+        <v>0.476117500823257</v>
       </c>
       <c r="G5">
-        <v>0.0007973015117931607</v>
+        <v>0.0008084511153885199</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4556702313055183</v>
+        <v>0.6682925457252651</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6866110777076599</v>
+        <v>0.4477787688655113</v>
       </c>
       <c r="N5">
-        <v>0.8704935381097485</v>
+        <v>0.8152538475044846</v>
       </c>
       <c r="O5">
-        <v>0.8518331564870323</v>
+        <v>1.470988040395454</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.660277385733082</v>
+        <v>0.6481554137229182</v>
       </c>
       <c r="C6">
-        <v>0.370818305905658</v>
+        <v>0.09107096226284739</v>
       </c>
       <c r="D6">
-        <v>0.01906209146601245</v>
+        <v>0.04827472594356408</v>
       </c>
       <c r="E6">
-        <v>0.1562042216115529</v>
+        <v>0.2521691562607487</v>
       </c>
       <c r="F6">
-        <v>1.096453698589769</v>
+        <v>0.474946427141461</v>
       </c>
       <c r="G6">
-        <v>0.0007976042751908238</v>
+        <v>0.000808612037606686</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4522723277094869</v>
+        <v>0.6635713010792443</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6814961219192597</v>
+        <v>0.4445006344377944</v>
       </c>
       <c r="N6">
-        <v>0.872301440247206</v>
+        <v>0.8170552348494216</v>
       </c>
       <c r="O6">
-        <v>0.8481612165214756</v>
+        <v>1.469060665595023</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.746555542561083</v>
+        <v>0.680854926478645</v>
       </c>
       <c r="C7">
-        <v>0.3898818442652043</v>
+        <v>0.09427643342783654</v>
       </c>
       <c r="D7">
-        <v>0.01867759503267497</v>
+        <v>0.04984750176011943</v>
       </c>
       <c r="E7">
-        <v>0.1639252457907219</v>
+        <v>0.2644069069454602</v>
       </c>
       <c r="F7">
-        <v>1.13298879004779</v>
+        <v>0.4831546170498342</v>
       </c>
       <c r="G7">
-        <v>0.0007955138649600995</v>
+        <v>0.0008075018746084662</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4758972933383703</v>
+        <v>0.6963458267941292</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7170842252972847</v>
+        <v>0.4672850623201157</v>
       </c>
       <c r="N7">
-        <v>0.8598849017309433</v>
+        <v>0.8046452920897185</v>
       </c>
       <c r="O7">
-        <v>0.8738288582001985</v>
+        <v>1.482695831267165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.131637529913348</v>
+        <v>0.8255082432789038</v>
       </c>
       <c r="C8">
-        <v>0.4748062840777436</v>
+        <v>0.1083937167079085</v>
       </c>
       <c r="D8">
-        <v>0.01702872281942858</v>
+        <v>0.05675206242382558</v>
       </c>
       <c r="E8">
-        <v>0.1988523827870026</v>
+        <v>0.3193732628929951</v>
       </c>
       <c r="F8">
-        <v>1.300212487464151</v>
+        <v>0.5214385125544112</v>
       </c>
       <c r="G8">
-        <v>0.0007865560550660934</v>
+        <v>0.0008027692543319649</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5812853787173893</v>
+        <v>0.8411446404695084</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8765066554619594</v>
+        <v>0.5686866632015466</v>
       </c>
       <c r="N8">
-        <v>0.8085011807725451</v>
+        <v>0.7522494678068412</v>
       </c>
       <c r="O8">
-        <v>0.9919241087429924</v>
+        <v>1.549496332201898</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.908299628668146</v>
+        <v>1.111275965125088</v>
       </c>
       <c r="C9">
-        <v>0.6455666820077113</v>
+        <v>0.1360443943136147</v>
       </c>
       <c r="D9">
-        <v>0.01399071714216715</v>
+        <v>0.07017706114929467</v>
       </c>
       <c r="E9">
-        <v>0.271384502472614</v>
+        <v>0.4315401952534259</v>
       </c>
       <c r="F9">
-        <v>1.654684555602898</v>
+        <v>0.6048700091594625</v>
       </c>
       <c r="G9">
-        <v>0.0007698647703291233</v>
+        <v>0.0007940627756872755</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7936527643726379</v>
+        <v>1.126496051984702</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.200720646834199</v>
+        <v>0.7716812357844987</v>
       </c>
       <c r="N9">
-        <v>0.721415696112885</v>
+        <v>0.6585069639631449</v>
       </c>
       <c r="O9">
-        <v>1.244768082436323</v>
+        <v>1.707099584212642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.498341417183667</v>
+        <v>1.323365996210526</v>
       </c>
       <c r="C10">
-        <v>0.7750546693125671</v>
+        <v>0.1564099980741673</v>
       </c>
       <c r="D10">
-        <v>0.01190519885792796</v>
+        <v>0.07998547814718648</v>
       </c>
       <c r="E10">
-        <v>0.3281820013617462</v>
+        <v>0.5175630069602022</v>
       </c>
       <c r="F10">
-        <v>1.936626113546183</v>
+        <v>0.6722191659163741</v>
       </c>
       <c r="G10">
-        <v>0.0007580460672861333</v>
+        <v>0.0007879923696751901</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9548985133533137</v>
+        <v>1.337819241281551</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.449260001262289</v>
+        <v>0.9244464747417922</v>
       </c>
       <c r="N10">
-        <v>0.6672980352026627</v>
+        <v>0.595623216323121</v>
       </c>
       <c r="O10">
-        <v>1.447675367339045</v>
+        <v>1.841927410749975</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.772586614518161</v>
+        <v>1.420520125636898</v>
       </c>
       <c r="C11">
-        <v>0.8352093027694707</v>
+        <v>0.1657031452295854</v>
       </c>
       <c r="D11">
-        <v>0.01099588598916101</v>
+        <v>0.08443927131389017</v>
       </c>
       <c r="E11">
-        <v>0.3550514618681717</v>
+        <v>0.5577108064358782</v>
       </c>
       <c r="F11">
-        <v>2.070912007547349</v>
+        <v>0.704400295204664</v>
       </c>
       <c r="G11">
-        <v>0.0007527435489853788</v>
+        <v>0.0007852960254910505</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.029829947455937</v>
+        <v>1.43451702935451</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.565408630165592</v>
+        <v>0.9949955023637926</v>
       </c>
       <c r="N11">
-        <v>0.64521003429914</v>
+        <v>0.5684352210488228</v>
       </c>
       <c r="O11">
-        <v>1.544769017602988</v>
+        <v>1.908070002979514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.877426069273554</v>
+        <v>1.457424698226447</v>
       </c>
       <c r="C12">
-        <v>0.8582034311060625</v>
+        <v>0.1692278870917647</v>
       </c>
       <c r="D12">
-        <v>0.01065800704375297</v>
+        <v>0.08612494254683867</v>
       </c>
       <c r="E12">
-        <v>0.3654004866620681</v>
+        <v>0.5730805352565937</v>
       </c>
       <c r="F12">
-        <v>2.122758011340267</v>
+        <v>0.7168288090388728</v>
       </c>
       <c r="G12">
-        <v>0.000750744145090243</v>
+        <v>0.0007842838638349809</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.058473667272423</v>
+        <v>1.471232718057735</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.609914631944108</v>
+        <v>1.021886121138586</v>
       </c>
       <c r="N12">
-        <v>0.6372472617122398</v>
+        <v>0.5583546429083022</v>
       </c>
       <c r="O12">
-        <v>1.582325836577951</v>
+        <v>1.933868308556015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.854800456787927</v>
+        <v>1.449471255376778</v>
       </c>
       <c r="C13">
-        <v>0.8532410701979813</v>
+        <v>0.1684684952918332</v>
       </c>
       <c r="D13">
-        <v>0.01073047396038396</v>
+        <v>0.08576193768167428</v>
       </c>
       <c r="E13">
-        <v>0.3631634474767438</v>
+        <v>0.5697626316865794</v>
       </c>
       <c r="F13">
-        <v>2.111545597428574</v>
+        <v>0.7141409954399904</v>
       </c>
       <c r="G13">
-        <v>0.0007511744080951974</v>
+        <v>0.000784501463690568</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.052292056736775</v>
+        <v>1.463320679758453</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.600304838235743</v>
+        <v>1.016086557331342</v>
       </c>
       <c r="N13">
-        <v>0.6389436823020134</v>
+        <v>0.5605159331803637</v>
       </c>
       <c r="O13">
-        <v>1.574200450385078</v>
+        <v>1.928277753087286</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.781191079118969</v>
+        <v>1.423553888559326</v>
       </c>
       <c r="C14">
-        <v>0.8370965200214755</v>
+        <v>0.1659930060165635</v>
       </c>
       <c r="D14">
-        <v>0.01096795401413786</v>
+        <v>0.08457796852347599</v>
       </c>
       <c r="E14">
-        <v>0.3558992327139379</v>
+        <v>0.5589718196245599</v>
       </c>
       <c r="F14">
-        <v>2.075156683427053</v>
+        <v>0.7054178209287016</v>
       </c>
       <c r="G14">
-        <v>0.0007525788982753196</v>
+        <v>0.0007852125791109752</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.032180839586871</v>
+        <v>1.4375355784872</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.569059194330379</v>
+        <v>0.9972041565224075</v>
       </c>
       <c r="N14">
-        <v>0.6445466539296092</v>
+        <v>0.5676015125334075</v>
       </c>
       <c r="O14">
-        <v>1.547842394543039</v>
+        <v>1.91017702332249</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.736236736992169</v>
+        <v>1.407694197520073</v>
       </c>
       <c r="C15">
-        <v>0.8272366182053474</v>
+        <v>0.1644774770290667</v>
       </c>
       <c r="D15">
-        <v>0.01111428434467232</v>
+        <v>0.08385264686457106</v>
       </c>
       <c r="E15">
-        <v>0.3514731916748843</v>
+        <v>0.5523844764096566</v>
       </c>
       <c r="F15">
-        <v>2.053001040296024</v>
+        <v>0.7001067943761399</v>
       </c>
       <c r="G15">
-        <v>0.0007534402359990329</v>
+        <v>0.0007856493001810683</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.01989846729667</v>
+        <v>1.42175479159738</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.549990968592567</v>
+        <v>0.9856616906591853</v>
       </c>
       <c r="N15">
-        <v>0.648032115391814</v>
+        <v>0.5719699642195053</v>
       </c>
       <c r="O15">
-        <v>1.531803348516632</v>
+        <v>1.899189534295857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.480548634892216</v>
+        <v>1.317031768122916</v>
       </c>
       <c r="C16">
-        <v>0.7711514791528771</v>
+        <v>0.1558033722738514</v>
       </c>
       <c r="D16">
-        <v>0.01196548205753389</v>
+        <v>0.07969427284671582</v>
       </c>
       <c r="E16">
-        <v>0.3264489108243396</v>
+        <v>0.5149614108809644</v>
       </c>
       <c r="F16">
-        <v>1.927982122963556</v>
+        <v>0.6701488133636246</v>
       </c>
       <c r="G16">
-        <v>0.0007583939136189307</v>
+        <v>0.0007881698522713096</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9500368051197796</v>
+        <v>1.331512620361508</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.441738075568537</v>
+        <v>0.9198591300401731</v>
       </c>
       <c r="N16">
-        <v>0.6687955667450893</v>
+        <v>0.5974294746141844</v>
       </c>
       <c r="O16">
-        <v>1.441434796443431</v>
+        <v>1.837706634891987</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.325287343873754</v>
+        <v>1.261597863987049</v>
       </c>
       <c r="C17">
-        <v>0.7370888549733365</v>
+        <v>0.1504904741606907</v>
       </c>
       <c r="D17">
-        <v>0.0124982772830351</v>
+        <v>0.07714136361691004</v>
       </c>
       <c r="E17">
-        <v>0.3113789389569703</v>
+        <v>0.4922778020290934</v>
       </c>
       <c r="F17">
-        <v>1.852917579100435</v>
+        <v>0.6521798834344423</v>
       </c>
       <c r="G17">
-        <v>0.0007614503494059119</v>
+        <v>0.0007897324762653742</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9076116734624691</v>
+        <v>1.276308561008705</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.376172356460984</v>
+        <v>0.8797778064948929</v>
       </c>
       <c r="N17">
-        <v>0.6822067086534886</v>
+        <v>0.6134188587717642</v>
       </c>
       <c r="O17">
-        <v>1.387291432218504</v>
+        <v>1.801261866359738</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.236524140482459</v>
+        <v>1.229775995101278</v>
       </c>
       <c r="C18">
-        <v>0.7176122363284776</v>
+        <v>0.1474372430569275</v>
       </c>
       <c r="D18">
-        <v>0.01280838058322642</v>
+        <v>0.075672216839898</v>
       </c>
       <c r="E18">
-        <v>0.3028065016084867</v>
+        <v>0.4793250514353247</v>
       </c>
       <c r="F18">
-        <v>1.810301443742674</v>
+        <v>0.6419886320291042</v>
       </c>
       <c r="G18">
-        <v>0.0007632154209502584</v>
+        <v>0.0007906374154700461</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.883355802533984</v>
+        <v>1.24460881202981</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.338745957269552</v>
+        <v>0.8568219106878558</v>
       </c>
       <c r="N18">
-        <v>0.6901561097718698</v>
+        <v>0.6227483075550317</v>
       </c>
       <c r="O18">
-        <v>1.356593766600199</v>
+        <v>1.780748574724356</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.206558727917354</v>
+        <v>1.21901183311661</v>
       </c>
       <c r="C19">
-        <v>0.7110365900120428</v>
+        <v>0.1464038757397503</v>
       </c>
       <c r="D19">
-        <v>0.01291398178190661</v>
+        <v>0.07517464659265727</v>
       </c>
       <c r="E19">
-        <v>0.2999196773757191</v>
+        <v>0.4749550626023336</v>
       </c>
       <c r="F19">
-        <v>1.795964710509693</v>
+        <v>0.638562188415996</v>
       </c>
       <c r="G19">
-        <v>0.0007638143211091632</v>
+        <v>0.0007909448842758321</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8751670589055607</v>
+        <v>1.233884285024288</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.326120761067671</v>
+        <v>0.8490655549495685</v>
       </c>
       <c r="N19">
-        <v>0.6928870441229691</v>
+        <v>0.6259295809450904</v>
       </c>
       <c r="O19">
-        <v>1.346273474369553</v>
+        <v>1.773878445077287</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.341758359654648</v>
+        <v>1.267492332154745</v>
       </c>
       <c r="C20">
-        <v>0.7407027053909303</v>
+        <v>0.1510557609440468</v>
       </c>
       <c r="D20">
-        <v>0.01244117688423163</v>
+        <v>0.0774132040044293</v>
       </c>
       <c r="E20">
-        <v>0.312973112451651</v>
+        <v>0.4946826115760246</v>
       </c>
       <c r="F20">
-        <v>1.86084959519863</v>
+        <v>0.654077661019187</v>
       </c>
       <c r="G20">
-        <v>0.0007611242669986006</v>
+        <v>0.0007895654981568249</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9121125109496262</v>
+        <v>1.282179609567606</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.383121872545061</v>
+        <v>0.8840342436269069</v>
       </c>
       <c r="N20">
-        <v>0.6807544212058403</v>
+        <v>0.6117029423555707</v>
       </c>
       <c r="O20">
-        <v>1.393008424889842</v>
+        <v>1.805094606546675</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.802783816872875</v>
+        <v>1.431163195544059</v>
       </c>
       <c r="C21">
-        <v>0.8418324319844999</v>
+        <v>0.1667199518833229</v>
       </c>
       <c r="D21">
-        <v>0.01089801807954727</v>
+        <v>0.08492575059953111</v>
       </c>
       <c r="E21">
-        <v>0.3580279604335317</v>
+        <v>0.562136647669135</v>
       </c>
       <c r="F21">
-        <v>2.085816893351719</v>
+        <v>0.7079732863894179</v>
       </c>
       <c r="G21">
-        <v>0.0007521661513006928</v>
+        <v>0.0007850034701146735</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.038080339084985</v>
+        <v>1.445106477200795</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.578221921867424</v>
+        <v>1.002745422960672</v>
       </c>
       <c r="N21">
-        <v>0.6428897064146923</v>
+        <v>0.5655143814648973</v>
       </c>
       <c r="O21">
-        <v>1.555562101591278</v>
+        <v>1.915472749183692</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.109937054445254</v>
+        <v>1.53880758402471</v>
       </c>
       <c r="C22">
-        <v>0.9091986486104986</v>
+        <v>0.1769910051746564</v>
       </c>
       <c r="D22">
-        <v>0.009927591600252139</v>
+        <v>0.08983062918458273</v>
       </c>
       <c r="E22">
-        <v>0.3885034480876044</v>
+        <v>0.6072038444469285</v>
       </c>
       <c r="F22">
-        <v>2.238715771958425</v>
+        <v>0.7446194987894614</v>
       </c>
       <c r="G22">
-        <v>0.0007463601635565626</v>
+        <v>0.0007820734665283508</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.121997569510569</v>
+        <v>1.552170614875791</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.708823961027008</v>
+        <v>1.081363741127859</v>
       </c>
       <c r="N22">
-        <v>0.6205039972639668</v>
+        <v>0.5365859298648097</v>
       </c>
       <c r="O22">
-        <v>1.666458523837051</v>
+        <v>1.992022932609217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.94541417474295</v>
+        <v>1.481287729173772</v>
       </c>
       <c r="C23">
-        <v>0.8731148288048018</v>
+        <v>0.171505547227369</v>
       </c>
       <c r="D23">
-        <v>0.01044173890191269</v>
+        <v>0.0872131627433177</v>
       </c>
       <c r="E23">
-        <v>0.3721344839806946</v>
+        <v>0.5830535044813985</v>
       </c>
       <c r="F23">
-        <v>2.156527258478917</v>
+        <v>0.7249235078155891</v>
       </c>
       <c r="G23">
-        <v>0.0007494552281633759</v>
+        <v>0.0007836327145368893</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.077048762551982</v>
+        <v>1.494969259984941</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.638807361233305</v>
+        <v>1.039300815728652</v>
       </c>
       <c r="N23">
-        <v>0.632221946458877</v>
+        <v>0.5519065949288482</v>
       </c>
       <c r="O23">
-        <v>1.606808178283458</v>
+        <v>1.950741971740371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.334310271563311</v>
+        <v>1.264827295458218</v>
       </c>
       <c r="C24">
-        <v>0.7390685546857867</v>
+        <v>0.1508001910860486</v>
       </c>
       <c r="D24">
-        <v>0.01246698022096648</v>
+        <v>0.07729030948794957</v>
       </c>
       <c r="E24">
-        <v>0.312252103544715</v>
+        <v>0.493595123498821</v>
       </c>
       <c r="F24">
-        <v>1.857261859855811</v>
+        <v>0.6532192433176718</v>
       </c>
       <c r="G24">
-        <v>0.0007612716641545173</v>
+        <v>0.0007896409684324087</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9100772652113136</v>
+        <v>1.279525192042513</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.379979166775243</v>
+        <v>0.8821096379476074</v>
       </c>
       <c r="N24">
-        <v>0.6814102582251493</v>
+        <v>0.6124782824559141</v>
       </c>
       <c r="O24">
-        <v>1.390422440371708</v>
+        <v>1.803360460902155</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.695276207504548</v>
+        <v>1.033658319470305</v>
       </c>
       <c r="C25">
-        <v>0.5987785198410336</v>
+        <v>0.1285607234210033</v>
       </c>
       <c r="D25">
-        <v>0.01478910946154155</v>
+        <v>0.06655603714047231</v>
       </c>
       <c r="E25">
-        <v>0.2512293245529378</v>
+        <v>0.4006341332962577</v>
       </c>
       <c r="F25">
-        <v>1.555431896248564</v>
+        <v>0.5813097998554042</v>
       </c>
       <c r="G25">
-        <v>0.0007742952033619657</v>
+        <v>0.0007963590152048774</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7354223459939604</v>
+        <v>1.049069531648854</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.111454784499372</v>
+        <v>0.7162134233453799</v>
       </c>
       <c r="N25">
-        <v>0.7433628478524383</v>
+        <v>0.6828532443533852</v>
       </c>
       <c r="O25">
-        <v>1.173685824683687</v>
+        <v>1.661335719321812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8648146295959975</v>
+        <v>0.7581144195595471</v>
       </c>
       <c r="C2">
-        <v>0.1122140985924744</v>
+        <v>0.1186810295473748</v>
       </c>
       <c r="D2">
-        <v>0.05861455575954722</v>
+        <v>0.07622245147128126</v>
       </c>
       <c r="E2">
-        <v>0.3345300597290048</v>
+        <v>0.4018960939772924</v>
       </c>
       <c r="F2">
-        <v>0.5323436695109436</v>
+        <v>0.3597651411994249</v>
       </c>
       <c r="G2">
-        <v>0.0008015266456941548</v>
+        <v>0.2551363942222835</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0009372737472865822</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2383838844732153</v>
       </c>
       <c r="K2">
-        <v>0.8804441751741194</v>
+        <v>0.2022488056230287</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5964040172968978</v>
+        <v>0.8164606427333467</v>
       </c>
       <c r="N2">
-        <v>0.7386449256281349</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.569298472279229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5725919474022589</v>
+      </c>
+      <c r="P2">
+        <v>0.6714705989921921</v>
+      </c>
+      <c r="Q2">
+        <v>0.989051870066632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7509544579644682</v>
+        <v>0.6627380077825933</v>
       </c>
       <c r="C3">
-        <v>0.1011297602749579</v>
+        <v>0.1066984966038689</v>
       </c>
       <c r="D3">
-        <v>0.05320379437258538</v>
+        <v>0.06736687056637436</v>
       </c>
       <c r="E3">
-        <v>0.2908796189307381</v>
+        <v>0.3561196865109721</v>
       </c>
       <c r="F3">
-        <v>0.5013253287905144</v>
+        <v>0.3394936755676525</v>
       </c>
       <c r="G3">
-        <v>0.0008051746774312313</v>
+        <v>0.24344756970563</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003382620079803722</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2368484615250708</v>
       </c>
       <c r="K3">
-        <v>0.7665515304890107</v>
+        <v>0.2030212054026705</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5163035025562692</v>
+        <v>0.7166822425347448</v>
       </c>
       <c r="N3">
-        <v>0.7787714897229883</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.513813208619041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4991163977066577</v>
+      </c>
+      <c r="P3">
+        <v>0.6961434548297536</v>
+      </c>
+      <c r="Q3">
+        <v>0.9607963874799168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6812377095076556</v>
+        <v>0.6040676160992575</v>
       </c>
       <c r="C4">
-        <v>0.09431392319705623</v>
+        <v>0.09932156629727729</v>
       </c>
       <c r="D4">
-        <v>0.04986588496335287</v>
+        <v>0.06191090425247125</v>
       </c>
       <c r="E4">
-        <v>0.2645505904221324</v>
+        <v>0.3279794403482583</v>
       </c>
       <c r="F4">
-        <v>0.4832517495110267</v>
+        <v>0.3275425876159872</v>
       </c>
       <c r="G4">
-        <v>0.0008074889764344835</v>
+        <v>0.2366816839951227</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001125240397716887</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2361831872964757</v>
       </c>
       <c r="K4">
-        <v>0.6967293876708851</v>
+        <v>0.2038168923283301</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4675520906842507</v>
+        <v>0.6552774114850166</v>
       </c>
       <c r="N4">
-        <v>0.8045013534740111</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.482858884161359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4539935060572233</v>
+      </c>
+      <c r="P4">
+        <v>0.7118994766389601</v>
+      </c>
+      <c r="Q4">
+        <v>0.9448929913261424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6528647917829744</v>
+        <v>0.580128013787288</v>
       </c>
       <c r="C5">
-        <v>0.09153297113518022</v>
+        <v>0.09631005348018107</v>
       </c>
       <c r="D5">
-        <v>0.04850153056852946</v>
+        <v>0.05968253820600466</v>
       </c>
       <c r="E5">
-        <v>0.2539271438218833</v>
+        <v>0.3165006773899819</v>
       </c>
       <c r="F5">
-        <v>0.476117500823257</v>
+        <v>0.3227912921886684</v>
       </c>
       <c r="G5">
-        <v>0.0008084511153885199</v>
+        <v>0.2340229258156228</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.423724066955238E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2359796859784851</v>
       </c>
       <c r="K5">
-        <v>0.6682925457252651</v>
+        <v>0.2042191989635889</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4477787688655113</v>
+        <v>0.63021545675646</v>
       </c>
       <c r="N5">
-        <v>0.8152538475044846</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.470988040395454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4355996730393983</v>
+      </c>
+      <c r="P5">
+        <v>0.7184693689693855</v>
+      </c>
+      <c r="Q5">
+        <v>0.9387606199344987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6481554137229182</v>
+        <v>0.5761508923425254</v>
       </c>
       <c r="C6">
-        <v>0.09107096226284739</v>
+        <v>0.09580965889780657</v>
       </c>
       <c r="D6">
-        <v>0.04827472594356408</v>
+        <v>0.05931220723090291</v>
       </c>
       <c r="E6">
-        <v>0.2521691562607487</v>
+        <v>0.3145938644613082</v>
       </c>
       <c r="F6">
-        <v>0.474946427141461</v>
+        <v>0.3220093579441254</v>
       </c>
       <c r="G6">
-        <v>0.000808612037606686</v>
+        <v>0.2335872417991993</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.653639123386455E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2359499158723182</v>
       </c>
       <c r="K6">
-        <v>0.6635713010792443</v>
+        <v>0.2042906370584099</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4445006344377944</v>
+        <v>0.6260514808938922</v>
       </c>
       <c r="N6">
-        <v>0.8170552348494216</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.469060665595023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4325449297411197</v>
+      </c>
+      <c r="P6">
+        <v>0.7195692082590526</v>
+      </c>
+      <c r="Q6">
+        <v>0.9377629551784281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.680854926478645</v>
+        <v>0.6037448880853731</v>
       </c>
       <c r="C7">
-        <v>0.09427643342783654</v>
+        <v>0.09928097419867754</v>
       </c>
       <c r="D7">
-        <v>0.04984750176011943</v>
+        <v>0.06188087247177521</v>
       </c>
       <c r="E7">
-        <v>0.2644069069454602</v>
+        <v>0.3278246837150292</v>
       </c>
       <c r="F7">
-        <v>0.4831546170498342</v>
+        <v>0.3274780361564069</v>
       </c>
       <c r="G7">
-        <v>0.0008075018746084662</v>
+        <v>0.2366454350992271</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001116041272548607</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2361801718923431</v>
       </c>
       <c r="K7">
-        <v>0.6963458267941292</v>
+        <v>0.2038220055102684</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4672850623201157</v>
+        <v>0.6549395797362649</v>
       </c>
       <c r="N7">
-        <v>0.8046452920897185</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.482695831267165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4537454690400153</v>
+      </c>
+      <c r="P7">
+        <v>0.7119874808442201</v>
+      </c>
+      <c r="Q7">
+        <v>0.9448088969539441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8255082432789038</v>
+        <v>0.7252489972059379</v>
       </c>
       <c r="C8">
-        <v>0.1083937167079085</v>
+        <v>0.1145532541577552</v>
       </c>
       <c r="D8">
-        <v>0.05675206242382558</v>
+        <v>0.07317269828288175</v>
       </c>
       <c r="E8">
-        <v>0.3193732628929951</v>
+        <v>0.3861174582413014</v>
       </c>
       <c r="F8">
-        <v>0.5214385125544112</v>
+        <v>0.3526691175025078</v>
       </c>
       <c r="G8">
-        <v>0.0008027692543319649</v>
+        <v>0.2510177062008552</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0007000185753827104</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2377955459084475</v>
       </c>
       <c r="K8">
-        <v>0.8411446404695084</v>
+        <v>0.2024467197048203</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5686866632015466</v>
+        <v>0.7820839083351245</v>
       </c>
       <c r="N8">
-        <v>0.7522494678068412</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.549496332201898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.547257052151906</v>
+      </c>
+      <c r="P8">
+        <v>0.6798497804745729</v>
+      </c>
+      <c r="Q8">
+        <v>0.9790000690166067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.111275965125088</v>
+        <v>0.9628364812753887</v>
       </c>
       <c r="C9">
-        <v>0.1360443943136147</v>
+        <v>0.1443685669485291</v>
       </c>
       <c r="D9">
-        <v>0.07017706114929467</v>
+        <v>0.09518525367666797</v>
       </c>
       <c r="E9">
-        <v>0.4315401952534259</v>
+        <v>0.5003103411282979</v>
       </c>
       <c r="F9">
-        <v>0.6048700091594625</v>
+        <v>0.4062746420954682</v>
       </c>
       <c r="G9">
-        <v>0.0007940627756872755</v>
+        <v>0.2826984340728274</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003074574019167775</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2432672867683863</v>
       </c>
       <c r="K9">
-        <v>1.126496051984702</v>
+        <v>0.2024297560222692</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7716812357844987</v>
+        <v>1.030486753632829</v>
       </c>
       <c r="N9">
-        <v>0.6585069639631449</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.707099584212642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7307489171304127</v>
+      </c>
+      <c r="P9">
+        <v>0.6217997864399027</v>
+      </c>
+      <c r="Q9">
+        <v>1.058231455469098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.323365996210526</v>
+        <v>1.138551505489175</v>
       </c>
       <c r="C10">
-        <v>0.1564099980741673</v>
+        <v>0.1658343621637499</v>
       </c>
       <c r="D10">
-        <v>0.07998547814718648</v>
+        <v>0.1121810810692949</v>
       </c>
       <c r="E10">
-        <v>0.5175630069602022</v>
+        <v>0.5501827038855112</v>
       </c>
       <c r="F10">
-        <v>0.6722191659163741</v>
+        <v>0.4440367813660302</v>
       </c>
       <c r="G10">
-        <v>0.0007879923696751901</v>
+        <v>0.3040856476652607</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00559354255090394</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2466680872629681</v>
       </c>
       <c r="K10">
-        <v>1.337819241281551</v>
+        <v>0.2019499309008133</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9244464747417922</v>
+        <v>1.213145981636501</v>
       </c>
       <c r="N10">
-        <v>0.595623216323121</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.841927410749975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8349885077559804</v>
+      </c>
+      <c r="P10">
+        <v>0.5835674189619233</v>
+      </c>
+      <c r="Q10">
+        <v>1.111104988915841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.420520125636898</v>
+        <v>1.230132033728694</v>
       </c>
       <c r="C11">
-        <v>0.1657031452295854</v>
+        <v>0.1722076675469708</v>
       </c>
       <c r="D11">
-        <v>0.08443927131389017</v>
+        <v>0.1278467666416105</v>
       </c>
       <c r="E11">
-        <v>0.5577108064358782</v>
+        <v>0.3191892500744373</v>
       </c>
       <c r="F11">
-        <v>0.704400295204664</v>
+        <v>0.4223584702930339</v>
       </c>
       <c r="G11">
-        <v>0.0007852960254910505</v>
+        <v>0.277239433379961</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02324782173185369</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2299486402638493</v>
       </c>
       <c r="K11">
-        <v>1.43451702935451</v>
+        <v>0.182801822253122</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9949955023637926</v>
+        <v>1.300248540061574</v>
       </c>
       <c r="N11">
-        <v>0.5684352210488228</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.908070002979514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6330123368275906</v>
+      </c>
+      <c r="P11">
+        <v>0.580917148677198</v>
+      </c>
+      <c r="Q11">
+        <v>1.019330897112496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.457424698226447</v>
+        <v>1.270848222055264</v>
       </c>
       <c r="C12">
-        <v>0.1692278870917647</v>
+        <v>0.1730801201819645</v>
       </c>
       <c r="D12">
-        <v>0.08612494254683867</v>
+        <v>0.1379161187963831</v>
       </c>
       <c r="E12">
-        <v>0.5730805352565937</v>
+        <v>0.1713885341809913</v>
       </c>
       <c r="F12">
-        <v>0.7168288090388728</v>
+        <v>0.3960377073164949</v>
       </c>
       <c r="G12">
-        <v>0.0007842838638349809</v>
+        <v>0.250697533813387</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06112670030045564</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.215226466733867</v>
       </c>
       <c r="K12">
-        <v>1.471232718057735</v>
+        <v>0.1671862657560794</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.021886121138586</v>
+        <v>1.335553442334799</v>
       </c>
       <c r="N12">
-        <v>0.5583546429083022</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.933868308556015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4659480269506631</v>
+      </c>
+      <c r="P12">
+        <v>0.5914253625157144</v>
+      </c>
+      <c r="Q12">
+        <v>0.9322829382840894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.449471255376778</v>
+        <v>1.274392571317378</v>
       </c>
       <c r="C13">
-        <v>0.1684684952918332</v>
+        <v>0.1697628250582426</v>
       </c>
       <c r="D13">
-        <v>0.08576193768167428</v>
+        <v>0.144151011824718</v>
       </c>
       <c r="E13">
-        <v>0.5697626316865794</v>
+        <v>0.07852313636092134</v>
       </c>
       <c r="F13">
-        <v>0.7141409954399904</v>
+        <v>0.364508323071945</v>
       </c>
       <c r="G13">
-        <v>0.000784501463690568</v>
+        <v>0.2227590782712099</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1160843358750014</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2011018289245143</v>
       </c>
       <c r="K13">
-        <v>1.463320679758453</v>
+        <v>0.1532554995820128</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.016086557331342</v>
+        <v>1.33271493983338</v>
       </c>
       <c r="N13">
-        <v>0.5605159331803637</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.928277753087286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3168076238638022</v>
+      </c>
+      <c r="P13">
+        <v>0.6116887617438991</v>
+      </c>
+      <c r="Q13">
+        <v>0.8434499304963765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.423553888559326</v>
+        <v>1.260018914487745</v>
       </c>
       <c r="C14">
-        <v>0.1659930060165635</v>
+        <v>0.1655650274327485</v>
       </c>
       <c r="D14">
-        <v>0.08457796852347599</v>
+        <v>0.1467731166405457</v>
       </c>
       <c r="E14">
-        <v>0.5589718196245599</v>
+        <v>0.04604501426443974</v>
       </c>
       <c r="F14">
-        <v>0.7054178209287016</v>
+        <v>0.3402813661568942</v>
       </c>
       <c r="G14">
-        <v>0.0007852125791109752</v>
+        <v>0.2028237795063532</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1649130556288725</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1915753804937239</v>
       </c>
       <c r="K14">
-        <v>1.4375355784872</v>
+        <v>0.1443910389851126</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9972041565224075</v>
+        <v>1.313457801415609</v>
       </c>
       <c r="N14">
-        <v>0.5676015125334075</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.91017702332249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2247558812104238</v>
+      </c>
+      <c r="P14">
+        <v>0.6304929883479815</v>
+      </c>
+      <c r="Q14">
+        <v>0.7811859106844139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.407694197520073</v>
+        <v>1.248489976833355</v>
       </c>
       <c r="C15">
-        <v>0.1644774770290667</v>
+        <v>0.1636502353028249</v>
       </c>
       <c r="D15">
-        <v>0.08385264686457106</v>
+        <v>0.1465196225075545</v>
       </c>
       <c r="E15">
-        <v>0.5523844764096566</v>
+        <v>0.04239393182964224</v>
       </c>
       <c r="F15">
-        <v>0.7001067943761399</v>
+        <v>0.333305250586406</v>
       </c>
       <c r="G15">
-        <v>0.0007856493001810683</v>
+        <v>0.1976107088581642</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1772382823598093</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1893748829555406</v>
       </c>
       <c r="K15">
-        <v>1.42175479159738</v>
+        <v>0.1425344693390898</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9856616906591853</v>
+        <v>1.300567305185467</v>
       </c>
       <c r="N15">
-        <v>0.5719699642195053</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.899189534295857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.203108146075369</v>
+      </c>
+      <c r="P15">
+        <v>0.6363985046080742</v>
+      </c>
+      <c r="Q15">
+        <v>0.7654960985705799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.317031768122916</v>
+        <v>1.171564970806998</v>
       </c>
       <c r="C16">
-        <v>0.1558033722738514</v>
+        <v>0.1551521161790674</v>
       </c>
       <c r="D16">
-        <v>0.07969427284671582</v>
+        <v>0.1376634711461833</v>
       </c>
       <c r="E16">
-        <v>0.5149614108809644</v>
+        <v>0.04263074087106533</v>
       </c>
       <c r="F16">
-        <v>0.6701488133636246</v>
+        <v>0.3234430299485851</v>
       </c>
       <c r="G16">
-        <v>0.0007881698522713096</v>
+        <v>0.1940796632788562</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1637204383575295</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1906371217287131</v>
       </c>
       <c r="K16">
-        <v>1.331512620361508</v>
+        <v>0.1453140385335452</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9198591300401731</v>
+        <v>1.222172756932252</v>
       </c>
       <c r="N16">
-        <v>0.5974294746141844</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.837706634891987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1934690410381599</v>
+      </c>
+      <c r="P16">
+        <v>0.6459906562619864</v>
+      </c>
+      <c r="Q16">
+        <v>0.7604829226044956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261597863987049</v>
+        <v>1.120367566292998</v>
       </c>
       <c r="C17">
-        <v>0.1504904741606907</v>
+        <v>0.1508613991440342</v>
       </c>
       <c r="D17">
-        <v>0.07714136361691004</v>
+        <v>0.1295041723692947</v>
       </c>
       <c r="E17">
-        <v>0.4922778020290934</v>
+        <v>0.05458286127458933</v>
       </c>
       <c r="F17">
-        <v>0.6521798834344423</v>
+        <v>0.3288054702545438</v>
       </c>
       <c r="G17">
-        <v>0.0007897324762653742</v>
+        <v>0.201950901860414</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1255913102557429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.196707378794521</v>
       </c>
       <c r="K17">
-        <v>1.276308561008705</v>
+        <v>0.1521920015394045</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8797778064948929</v>
+        <v>1.172418470207361</v>
       </c>
       <c r="N17">
-        <v>0.6134188587717642</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.801261866359738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2318822615916787</v>
+      </c>
+      <c r="P17">
+        <v>0.6435716204503947</v>
+      </c>
+      <c r="Q17">
+        <v>0.7897778468366283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.229775995101278</v>
+        <v>1.085546897548852</v>
       </c>
       <c r="C18">
-        <v>0.1474372430569275</v>
+        <v>0.149715727760622</v>
       </c>
       <c r="D18">
-        <v>0.075672216839898</v>
+        <v>0.1211697951104469</v>
       </c>
       <c r="E18">
-        <v>0.4793250514353247</v>
+        <v>0.1058696132145194</v>
       </c>
       <c r="F18">
-        <v>0.6419886320291042</v>
+        <v>0.3479197006276138</v>
       </c>
       <c r="G18">
-        <v>0.0007906374154700461</v>
+        <v>0.2209018467173323</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0728710806329218</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2076919696984518</v>
       </c>
       <c r="K18">
-        <v>1.24460881202981</v>
+        <v>0.1636186764729004</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8568219106878558</v>
+        <v>1.141668399387839</v>
       </c>
       <c r="N18">
-        <v>0.6227483075550317</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.780748574724356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3288760990611692</v>
+      </c>
+      <c r="P18">
+        <v>0.6325617890583963</v>
+      </c>
+      <c r="Q18">
+        <v>0.8529033260478514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.21901183311661</v>
+        <v>1.066582663231827</v>
       </c>
       <c r="C19">
-        <v>0.1464038757397503</v>
+        <v>0.1512298646819659</v>
       </c>
       <c r="D19">
-        <v>0.07517464659265727</v>
+        <v>0.1134952131680507</v>
       </c>
       <c r="E19">
-        <v>0.4749550626023336</v>
+        <v>0.2273047791710994</v>
       </c>
       <c r="F19">
-        <v>0.638562188415996</v>
+        <v>0.3771124244181578</v>
       </c>
       <c r="G19">
-        <v>0.0007909448842758321</v>
+        <v>0.2482226950977946</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02832978417041687</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.222097399771009</v>
       </c>
       <c r="K19">
-        <v>1.233884285024288</v>
+        <v>0.178374935096997</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8490655549495685</v>
+        <v>1.128558680373629</v>
       </c>
       <c r="N19">
-        <v>0.6259295809450904</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.773878445077287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4861433449847823</v>
+      </c>
+      <c r="P19">
+        <v>0.6182763794119381</v>
+      </c>
+      <c r="Q19">
+        <v>0.9409857782049755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.267492332154745</v>
+        <v>1.092465592115275</v>
       </c>
       <c r="C20">
-        <v>0.1510557609440468</v>
+        <v>0.1601847481312717</v>
       </c>
       <c r="D20">
-        <v>0.0774132040044293</v>
+        <v>0.1077551049070706</v>
       </c>
       <c r="E20">
-        <v>0.4946826115760246</v>
+        <v>0.5356341516061534</v>
       </c>
       <c r="F20">
-        <v>0.654077661019187</v>
+        <v>0.4337161315229494</v>
       </c>
       <c r="G20">
-        <v>0.0007895654981568249</v>
+        <v>0.2981075720747057</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004846102774679117</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2455722129336664</v>
       </c>
       <c r="K20">
-        <v>1.282179609567606</v>
+        <v>0.2018469162836176</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8840342436269069</v>
+        <v>1.165211938399636</v>
       </c>
       <c r="N20">
-        <v>0.6117029423555707</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.805094606546675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.806328749770401</v>
+      </c>
+      <c r="P20">
+        <v>0.5933896522379101</v>
+      </c>
+      <c r="Q20">
+        <v>1.096030630129505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.431163195544059</v>
+        <v>1.225330112434506</v>
       </c>
       <c r="C21">
-        <v>0.1667199518833229</v>
+        <v>0.177256313253281</v>
       </c>
       <c r="D21">
-        <v>0.08492575059953111</v>
+        <v>0.1194322275459854</v>
       </c>
       <c r="E21">
-        <v>0.562136647669135</v>
+        <v>0.6268574716098883</v>
       </c>
       <c r="F21">
-        <v>0.7079732863894179</v>
+        <v>0.4708323997503854</v>
       </c>
       <c r="G21">
-        <v>0.0007850034701146735</v>
+        <v>0.3221476211725616</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007273501646498315</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2520787377672917</v>
       </c>
       <c r="K21">
-        <v>1.445106477200795</v>
+        <v>0.2056527240558275</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.002745422960672</v>
+        <v>1.304694149178118</v>
       </c>
       <c r="N21">
-        <v>0.5655143814648973</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.915472749183692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9342814863190867</v>
+      </c>
+      <c r="P21">
+        <v>0.5633952802767936</v>
+      </c>
+      <c r="Q21">
+        <v>1.160932078973332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.53880758402471</v>
+        <v>1.312892048219851</v>
       </c>
       <c r="C22">
-        <v>0.1769910051746564</v>
+        <v>0.1882175748354058</v>
       </c>
       <c r="D22">
-        <v>0.08983062918458273</v>
+        <v>0.12750729669186</v>
       </c>
       <c r="E22">
-        <v>0.6072038444469285</v>
+        <v>0.6691670565087122</v>
       </c>
       <c r="F22">
-        <v>0.7446194987894614</v>
+        <v>0.4934263643520822</v>
       </c>
       <c r="G22">
-        <v>0.0007820734665283508</v>
+        <v>0.3362006018191437</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008999056843840517</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2555555252176873</v>
       </c>
       <c r="K22">
-        <v>1.552170614875791</v>
+        <v>0.2073655552836939</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.081363741127859</v>
+        <v>1.396121645758512</v>
       </c>
       <c r="N22">
-        <v>0.5365859298648097</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.992022932609217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.002336803432215</v>
+      </c>
+      <c r="P22">
+        <v>0.5450274082115314</v>
+      </c>
+      <c r="Q22">
+        <v>1.198200644482313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.481287729173772</v>
+        <v>1.266150289572579</v>
       </c>
       <c r="C23">
-        <v>0.171505547227369</v>
+        <v>0.1823668094574202</v>
       </c>
       <c r="D23">
-        <v>0.0872131627433177</v>
+        <v>0.123197450011304</v>
       </c>
       <c r="E23">
-        <v>0.5830535044813985</v>
+        <v>0.6465755063705245</v>
       </c>
       <c r="F23">
-        <v>0.7249235078155891</v>
+        <v>0.4813037717209809</v>
       </c>
       <c r="G23">
-        <v>0.0007836327145368893</v>
+        <v>0.3286466307144025</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008058710844026318</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2536686017086254</v>
       </c>
       <c r="K23">
-        <v>1.494969259984941</v>
+        <v>0.206414269662023</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.039300815728652</v>
+        <v>1.347318695644873</v>
       </c>
       <c r="N23">
-        <v>0.5519065949288482</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.950741971740371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9659985471706634</v>
+      </c>
+      <c r="P23">
+        <v>0.5547681753699365</v>
+      </c>
+      <c r="Q23">
+        <v>1.17813100546357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.264827295458218</v>
+        <v>1.089273291004474</v>
       </c>
       <c r="C24">
-        <v>0.1508001910860486</v>
+        <v>0.1602155822685205</v>
       </c>
       <c r="D24">
-        <v>0.07729030948794957</v>
+        <v>0.106872453801131</v>
       </c>
       <c r="E24">
-        <v>0.493595123498821</v>
+        <v>0.5612119081874596</v>
       </c>
       <c r="F24">
-        <v>0.6532192433176718</v>
+        <v>0.436744862275134</v>
       </c>
       <c r="G24">
-        <v>0.0007896409684324087</v>
+        <v>0.3011742751060851</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004907455651257719</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.247191682912991</v>
       </c>
       <c r="K24">
-        <v>1.279525192042513</v>
+        <v>0.2036042169720353</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8821096379476074</v>
+        <v>1.162591547975865</v>
       </c>
       <c r="N24">
-        <v>0.6124782824559141</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.803360460902155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8286903178772818</v>
+      </c>
+      <c r="P24">
+        <v>0.5930047417210957</v>
+      </c>
+      <c r="Q24">
+        <v>1.105921384004958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.033658319470305</v>
+        <v>0.8986073644650787</v>
       </c>
       <c r="C25">
-        <v>0.1285607234210033</v>
+        <v>0.1363135860038938</v>
       </c>
       <c r="D25">
-        <v>0.06655603714047231</v>
+        <v>0.08924165320287614</v>
       </c>
       <c r="E25">
-        <v>0.4006341332962577</v>
+        <v>0.4694090450612762</v>
       </c>
       <c r="F25">
-        <v>0.5813097998554042</v>
+        <v>0.3912826888877206</v>
       </c>
       <c r="G25">
-        <v>0.0007963590152048774</v>
+        <v>0.2737193154270159</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002288025705324159</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2415254634161812</v>
       </c>
       <c r="K25">
-        <v>1.049069531648854</v>
+        <v>0.2021286445191173</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7162134233453799</v>
+        <v>0.9633571081011212</v>
       </c>
       <c r="N25">
-        <v>0.6828532443533852</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.661335719321812</v>
+        <v>0.6810690396310761</v>
+      </c>
+      <c r="P25">
+        <v>0.6369490497942234</v>
+      </c>
+      <c r="Q25">
+        <v>1.035389045672119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7581144195595471</v>
+        <v>0.7330204591137317</v>
       </c>
       <c r="C2">
-        <v>0.1186810295473748</v>
+        <v>0.1295749115434148</v>
       </c>
       <c r="D2">
-        <v>0.07622245147128126</v>
+        <v>0.07863619422948886</v>
       </c>
       <c r="E2">
-        <v>0.4018960939772924</v>
+        <v>0.400737759337261</v>
       </c>
       <c r="F2">
-        <v>0.3597651411994249</v>
+        <v>0.3479406474710842</v>
       </c>
       <c r="G2">
-        <v>0.2551363942222835</v>
+        <v>0.2262966991554336</v>
       </c>
       <c r="H2">
-        <v>0.0009372737472865822</v>
+        <v>0.0009005213621107178</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2383838844732153</v>
+        <v>0.2713027879708889</v>
       </c>
       <c r="K2">
-        <v>0.2022488056230287</v>
+        <v>0.190731298521591</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1229147767176517</v>
       </c>
       <c r="M2">
-        <v>0.8164606427333467</v>
+        <v>0.03609695310705696</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5725919474022589</v>
+        <v>0.8160818597526429</v>
       </c>
       <c r="P2">
-        <v>0.6714705989921921</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.989051870066632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.572928329820634</v>
+      </c>
+      <c r="R2">
+        <v>0.6721583743936996</v>
+      </c>
+      <c r="S2">
+        <v>0.9540076980400727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6627380077825933</v>
+        <v>0.6449184285980039</v>
       </c>
       <c r="C3">
-        <v>0.1066984966038689</v>
+        <v>0.113520167430039</v>
       </c>
       <c r="D3">
-        <v>0.06736687056637436</v>
+        <v>0.06914100469679596</v>
       </c>
       <c r="E3">
-        <v>0.3561196865109721</v>
+        <v>0.3554606509466609</v>
       </c>
       <c r="F3">
-        <v>0.3394936755676525</v>
+        <v>0.3299155508892611</v>
       </c>
       <c r="G3">
-        <v>0.24344756970563</v>
+        <v>0.2168048250364478</v>
       </c>
       <c r="H3">
-        <v>0.0003382620079803722</v>
+        <v>0.0003305783887466163</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2368484615250708</v>
+        <v>0.2689790642035632</v>
       </c>
       <c r="K3">
-        <v>0.2030212054026705</v>
+        <v>0.19263299126915</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1276102745925982</v>
       </c>
       <c r="M3">
-        <v>0.7166822425347448</v>
+        <v>0.03395687424706928</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4991163977066577</v>
+        <v>0.7164975490351395</v>
       </c>
       <c r="P3">
-        <v>0.6961434548297536</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9607963874799168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4994954821616204</v>
+      </c>
+      <c r="R3">
+        <v>0.6940134679033925</v>
+      </c>
+      <c r="S3">
+        <v>0.9316679541965556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6040676160992575</v>
+        <v>0.5905725391046417</v>
       </c>
       <c r="C4">
-        <v>0.09932156629727729</v>
+        <v>0.1037148818805917</v>
       </c>
       <c r="D4">
-        <v>0.06191090425247125</v>
+        <v>0.0633025438756647</v>
       </c>
       <c r="E4">
-        <v>0.3279794403482583</v>
+        <v>0.3276241116812741</v>
       </c>
       <c r="F4">
-        <v>0.3275425876159872</v>
+        <v>0.3192531118352377</v>
       </c>
       <c r="G4">
-        <v>0.2366816839951227</v>
+        <v>0.2113701391016747</v>
       </c>
       <c r="H4">
-        <v>0.0001125240397716887</v>
+        <v>0.0001133734625680116</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2361831872964757</v>
+        <v>0.2676921760496711</v>
       </c>
       <c r="K4">
-        <v>0.2038168923283301</v>
+        <v>0.194042503224269</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1306794754444525</v>
       </c>
       <c r="M4">
-        <v>0.6552774114850166</v>
+        <v>0.03314331851110275</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4539935060572233</v>
+        <v>0.6551979624558726</v>
       </c>
       <c r="P4">
-        <v>0.7118994766389601</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9448929913261424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4543890000343964</v>
+      </c>
+      <c r="R4">
+        <v>0.7080282226085313</v>
+      </c>
+      <c r="S4">
+        <v>0.9191126369324252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.580128013787288</v>
+        <v>0.5683606508935952</v>
       </c>
       <c r="C5">
-        <v>0.09631005348018107</v>
+        <v>0.0997317367989865</v>
       </c>
       <c r="D5">
-        <v>0.05968253820600466</v>
+        <v>0.06092087460150708</v>
       </c>
       <c r="E5">
-        <v>0.3165006773899819</v>
+        <v>0.3162686167947655</v>
       </c>
       <c r="F5">
-        <v>0.3227912921886684</v>
+        <v>0.3150049120398535</v>
       </c>
       <c r="G5">
-        <v>0.2340229258156228</v>
+        <v>0.2092491148318558</v>
       </c>
       <c r="H5">
-        <v>5.423724066955238E-05</v>
+        <v>5.637349016107684E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2359796859784851</v>
+        <v>0.2672019058788919</v>
       </c>
       <c r="K5">
-        <v>0.2042191989635889</v>
+        <v>0.1946755467568888</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1319770210890638</v>
       </c>
       <c r="M5">
-        <v>0.63021545675646</v>
+        <v>0.0329362787640548</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4355996730393983</v>
+        <v>0.6301761659586163</v>
       </c>
       <c r="P5">
-        <v>0.7184693689693855</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9387606199344987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4359997587601256</v>
+      </c>
+      <c r="R5">
+        <v>0.7138861960610772</v>
+      </c>
+      <c r="S5">
+        <v>0.9142754441912189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5761508923425254</v>
+        <v>0.5646683605920657</v>
       </c>
       <c r="C6">
-        <v>0.09580965889780657</v>
+        <v>0.09907108262187592</v>
       </c>
       <c r="D6">
-        <v>0.05931220723090291</v>
+        <v>0.06052524259648351</v>
       </c>
       <c r="E6">
-        <v>0.3145938644613082</v>
+        <v>0.3143822489388199</v>
       </c>
       <c r="F6">
-        <v>0.3220093579441254</v>
+        <v>0.3143052065409506</v>
       </c>
       <c r="G6">
-        <v>0.2335872417991993</v>
+        <v>0.208902426485686</v>
       </c>
       <c r="H6">
-        <v>4.653639123386455E-05</v>
+        <v>4.875833293627174E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2359499158723182</v>
+        <v>0.2671225299566728</v>
       </c>
       <c r="K6">
-        <v>0.2042906370584099</v>
+        <v>0.194784143903032</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1321953060065049</v>
       </c>
       <c r="M6">
-        <v>0.6260514808938922</v>
+        <v>0.03290938062338444</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4325449297411197</v>
+        <v>0.6260187155008055</v>
       </c>
       <c r="P6">
-        <v>0.7195692082590526</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9377629551784281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4329456619308871</v>
+      </c>
+      <c r="R6">
+        <v>0.7148676938187908</v>
+      </c>
+      <c r="S6">
+        <v>0.9134887282919237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6037448880853731</v>
+        <v>0.5899778597633087</v>
       </c>
       <c r="C7">
-        <v>0.09928097419867754</v>
+        <v>0.1034457563740006</v>
       </c>
       <c r="D7">
-        <v>0.06188087247177521</v>
+        <v>0.06337810814844147</v>
       </c>
       <c r="E7">
-        <v>0.3278246837150292</v>
+        <v>0.3275252212711806</v>
       </c>
       <c r="F7">
-        <v>0.3274780361564069</v>
+        <v>0.3186253793365452</v>
       </c>
       <c r="G7">
-        <v>0.2366454350992271</v>
+        <v>0.2136348932247358</v>
       </c>
       <c r="H7">
-        <v>0.0001116041272548607</v>
+        <v>0.0001120347447371994</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2361801718923431</v>
+        <v>0.2643889592982376</v>
       </c>
       <c r="K7">
-        <v>0.2038220055102684</v>
+        <v>0.1938059927819431</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1305646444859931</v>
       </c>
       <c r="M7">
-        <v>0.6549395797362649</v>
+        <v>0.03308409377120736</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4537454690400153</v>
+        <v>0.6542703305208022</v>
       </c>
       <c r="P7">
-        <v>0.7119874808442201</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9448088969539441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4540003341054941</v>
+      </c>
+      <c r="R7">
+        <v>0.7081648647910672</v>
+      </c>
+      <c r="S7">
+        <v>0.9173201401637812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7252489972059379</v>
+        <v>0.7017055569427839</v>
       </c>
       <c r="C8">
-        <v>0.1145532541577552</v>
+        <v>0.1232964690548215</v>
       </c>
       <c r="D8">
-        <v>0.07317269828288175</v>
+        <v>0.0757269450483804</v>
       </c>
       <c r="E8">
-        <v>0.3861174582413014</v>
+        <v>0.3853178291732036</v>
       </c>
       <c r="F8">
-        <v>0.3526691175025078</v>
+        <v>0.3397464682237157</v>
       </c>
       <c r="G8">
-        <v>0.2510177062008552</v>
+        <v>0.2306254866073445</v>
       </c>
       <c r="H8">
-        <v>0.0007000185753827104</v>
+        <v>0.0006719568759656624</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2377955459084475</v>
+        <v>0.2597753658715405</v>
       </c>
       <c r="K8">
-        <v>0.2024467197048203</v>
+        <v>0.1905354375257033</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1241086972760872</v>
       </c>
       <c r="M8">
-        <v>0.7820839083351245</v>
+        <v>0.03502646591324599</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.547257052151906</v>
+        <v>0.7797951085438228</v>
       </c>
       <c r="P8">
-        <v>0.6798497804745729</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9790000690166067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5471373922405363</v>
+      </c>
+      <c r="R8">
+        <v>0.6798290536083265</v>
+      </c>
+      <c r="S8">
+        <v>0.9403499175386827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9628364812753887</v>
+        <v>0.9200104491534091</v>
       </c>
       <c r="C9">
-        <v>0.1443685669485291</v>
+        <v>0.163449302237666</v>
       </c>
       <c r="D9">
-        <v>0.09518525367666797</v>
+        <v>0.09950208401240701</v>
       </c>
       <c r="E9">
-        <v>0.5003103411282979</v>
+        <v>0.4982985864948049</v>
       </c>
       <c r="F9">
-        <v>0.4062746420954682</v>
+        <v>0.3866859009758414</v>
       </c>
       <c r="G9">
-        <v>0.2826984340728274</v>
+        <v>0.2588582691816441</v>
       </c>
       <c r="H9">
-        <v>0.003074574019167775</v>
+        <v>0.002910566258545466</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2432672867683863</v>
+        <v>0.2635036354899469</v>
       </c>
       <c r="K9">
-        <v>0.2024297560222692</v>
+        <v>0.187031802667569</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1134102763678957</v>
       </c>
       <c r="M9">
-        <v>1.030486753632829</v>
+        <v>0.04307066857016828</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7307489171304127</v>
+        <v>1.027016119589462</v>
       </c>
       <c r="P9">
-        <v>0.6217997864399027</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.058231455469098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7303092790727206</v>
+      </c>
+      <c r="R9">
+        <v>0.628916302046715</v>
+      </c>
+      <c r="S9">
+        <v>1.001598093818544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.138551505489175</v>
+        <v>1.079489495309389</v>
       </c>
       <c r="C10">
-        <v>0.1658343621637499</v>
+        <v>0.1911750202782798</v>
       </c>
       <c r="D10">
-        <v>0.1121810810692949</v>
+        <v>0.1184856729243222</v>
       </c>
       <c r="E10">
-        <v>0.5501827038855112</v>
+        <v>0.5476462229956169</v>
       </c>
       <c r="F10">
-        <v>0.4440367813660302</v>
+        <v>0.4161132333335118</v>
       </c>
       <c r="G10">
-        <v>0.3040856476652607</v>
+        <v>0.2918853021935703</v>
       </c>
       <c r="H10">
-        <v>0.00559354255090394</v>
+        <v>0.005266371443887419</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2466680872629681</v>
+        <v>0.2477300122426342</v>
       </c>
       <c r="K10">
-        <v>0.2019499309008133</v>
+        <v>0.182587048602791</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1052977656731056</v>
       </c>
       <c r="M10">
-        <v>1.213145981636501</v>
+        <v>0.05019302354196498</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8349885077559804</v>
+        <v>1.205075819364964</v>
       </c>
       <c r="P10">
-        <v>0.5835674189619233</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.111104988915841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8334114695502706</v>
+      </c>
+      <c r="R10">
+        <v>0.5970174996558271</v>
+      </c>
+      <c r="S10">
+        <v>1.031140454187891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.230132033728694</v>
+        <v>1.164841393930971</v>
       </c>
       <c r="C11">
-        <v>0.1722076675469708</v>
+        <v>0.1950786531213708</v>
       </c>
       <c r="D11">
-        <v>0.1278467666416105</v>
+        <v>0.1361193037532189</v>
       </c>
       <c r="E11">
-        <v>0.3191892500744373</v>
+        <v>0.3171977933900223</v>
       </c>
       <c r="F11">
-        <v>0.4223584702930339</v>
+        <v>0.3886842332048985</v>
       </c>
       <c r="G11">
-        <v>0.277239433379961</v>
+        <v>0.2962041305932388</v>
       </c>
       <c r="H11">
-        <v>0.02324782173185369</v>
+        <v>0.02290244683112519</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2299486402638493</v>
+        <v>0.2026647203811294</v>
       </c>
       <c r="K11">
-        <v>0.182801822253122</v>
+        <v>0.162957083760638</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09585540209842947</v>
       </c>
       <c r="M11">
-        <v>1.300248540061574</v>
+        <v>0.04613868912181829</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6330123368275906</v>
+        <v>1.28357925980572</v>
       </c>
       <c r="P11">
-        <v>0.580917148677198</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.019330897112496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6300927455891667</v>
+      </c>
+      <c r="R11">
+        <v>0.6034415775606874</v>
+      </c>
+      <c r="S11">
+        <v>0.9253366677223909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.270848222055264</v>
+        <v>1.204961069897365</v>
       </c>
       <c r="C12">
-        <v>0.1730801201819645</v>
+        <v>0.1933429705716918</v>
       </c>
       <c r="D12">
-        <v>0.1379161187963831</v>
+        <v>0.1470504784873583</v>
       </c>
       <c r="E12">
-        <v>0.1713885341809913</v>
+        <v>0.1695032114150692</v>
       </c>
       <c r="F12">
-        <v>0.3960377073164949</v>
+        <v>0.3615824910381491</v>
       </c>
       <c r="G12">
-        <v>0.250697533813387</v>
+        <v>0.2834627339643845</v>
       </c>
       <c r="H12">
-        <v>0.06112670030045564</v>
+        <v>0.06080137893722792</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.215226466733867</v>
+        <v>0.1815061344133504</v>
       </c>
       <c r="K12">
-        <v>0.1671862657560794</v>
+        <v>0.1487720064736422</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09030049502731075</v>
       </c>
       <c r="M12">
-        <v>1.335553442334799</v>
+        <v>0.04148135483884374</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4659480269506631</v>
+        <v>1.314699762141771</v>
       </c>
       <c r="P12">
-        <v>0.5914253625157144</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9322829382840894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4628845531649617</v>
+      </c>
+      <c r="R12">
+        <v>0.6202108388450682</v>
+      </c>
+      <c r="S12">
+        <v>0.8385674511133914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.274392571317378</v>
+        <v>1.213172743255427</v>
       </c>
       <c r="C13">
-        <v>0.1697628250582426</v>
+        <v>0.1877581841741431</v>
       </c>
       <c r="D13">
-        <v>0.144151011824718</v>
+        <v>0.1529108268238701</v>
       </c>
       <c r="E13">
-        <v>0.07852313636092134</v>
+        <v>0.07655067174378871</v>
       </c>
       <c r="F13">
-        <v>0.364508323071945</v>
+        <v>0.3340809037947707</v>
       </c>
       <c r="G13">
-        <v>0.2227590782712099</v>
+        <v>0.251373532760141</v>
       </c>
       <c r="H13">
-        <v>0.1160843358750014</v>
+        <v>0.1158073909452639</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2011018289245143</v>
+        <v>0.176088597429743</v>
       </c>
       <c r="K13">
-        <v>0.1532554995820128</v>
+        <v>0.138013561698541</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08699757637155869</v>
       </c>
       <c r="M13">
-        <v>1.33271493983338</v>
+        <v>0.03640006795432171</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3168076238638022</v>
+        <v>1.312622188436649</v>
       </c>
       <c r="P13">
-        <v>0.6116887617438991</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8434499304963765</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3144712445163691</v>
+      </c>
+      <c r="R13">
+        <v>0.6430568667134224</v>
+      </c>
+      <c r="S13">
+        <v>0.7632786493656454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.260018914487745</v>
+        <v>1.20442764153691</v>
       </c>
       <c r="C14">
-        <v>0.1655650274327485</v>
+        <v>0.1821046120991525</v>
       </c>
       <c r="D14">
-        <v>0.1467731166405457</v>
+        <v>0.1546876830007875</v>
       </c>
       <c r="E14">
-        <v>0.04604501426443974</v>
+        <v>0.04404974728348865</v>
       </c>
       <c r="F14">
-        <v>0.3402813661568942</v>
+        <v>0.3145499288974491</v>
       </c>
       <c r="G14">
-        <v>0.2028237795063532</v>
+        <v>0.2218263241602187</v>
       </c>
       <c r="H14">
-        <v>0.1649130556288725</v>
+        <v>0.1646773541883277</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1915753804937239</v>
+        <v>0.177834053030832</v>
       </c>
       <c r="K14">
-        <v>0.1443910389851126</v>
+        <v>0.1319368734559472</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08554194006923233</v>
       </c>
       <c r="M14">
-        <v>1.313457801415609</v>
+        <v>0.03275256155835748</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2247558812104238</v>
+        <v>1.296082408602956</v>
       </c>
       <c r="P14">
-        <v>0.6304929883479815</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7811859106844139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2231343375853108</v>
+      </c>
+      <c r="R14">
+        <v>0.6614606644160475</v>
+      </c>
+      <c r="S14">
+        <v>0.7153063493620522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.248489976833355</v>
+        <v>1.195309797043336</v>
       </c>
       <c r="C15">
-        <v>0.1636502353028249</v>
+        <v>0.1798620706431677</v>
       </c>
       <c r="D15">
-        <v>0.1465196225075545</v>
+        <v>0.1539788730425471</v>
       </c>
       <c r="E15">
-        <v>0.04239393182964224</v>
+        <v>0.04043202957526781</v>
       </c>
       <c r="F15">
-        <v>0.333305250586406</v>
+        <v>0.309527268992241</v>
       </c>
       <c r="G15">
-        <v>0.1976107088581642</v>
+        <v>0.211599561712184</v>
       </c>
       <c r="H15">
-        <v>0.1772382823598093</v>
+        <v>0.1770190882208311</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1893748829555406</v>
+        <v>0.1807242850484485</v>
       </c>
       <c r="K15">
-        <v>0.1425344693390898</v>
+        <v>0.1310144979363699</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08553924627817722</v>
       </c>
       <c r="M15">
-        <v>1.300567305185467</v>
+        <v>0.03177757502068346</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.203108146075369</v>
+        <v>1.284791671085316</v>
       </c>
       <c r="P15">
-        <v>0.6363985046080742</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7654960985705799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2017423638256872</v>
+      </c>
+      <c r="R15">
+        <v>0.6663401147547745</v>
+      </c>
+      <c r="S15">
+        <v>0.7051786184537576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.171564970806998</v>
+        <v>1.12747701422461</v>
       </c>
       <c r="C16">
-        <v>0.1551521161790674</v>
+        <v>0.1712472322103196</v>
       </c>
       <c r="D16">
-        <v>0.1376634711461833</v>
+        <v>0.1430709824420973</v>
       </c>
       <c r="E16">
-        <v>0.04263074087106533</v>
+        <v>0.04095152184503581</v>
       </c>
       <c r="F16">
-        <v>0.3234430299485851</v>
+        <v>0.3066502208599431</v>
       </c>
       <c r="G16">
-        <v>0.1940796632788562</v>
+        <v>0.1860798014477894</v>
       </c>
       <c r="H16">
-        <v>0.1637204383575295</v>
+        <v>0.1635684582842885</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1906371217287131</v>
+        <v>0.2043411793909229</v>
       </c>
       <c r="K16">
-        <v>0.1453140385335452</v>
+        <v>0.136115594819314</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08899620910897355</v>
       </c>
       <c r="M16">
-        <v>1.222172756932252</v>
+        <v>0.03076897124947031</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1934690410381599</v>
+        <v>1.214105541702395</v>
       </c>
       <c r="P16">
-        <v>0.6459906562619864</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7604829226044956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1929165331682441</v>
+      </c>
+      <c r="R16">
+        <v>0.6686000522902873</v>
+      </c>
+      <c r="S16">
+        <v>0.7184656556735831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.120367566292998</v>
+        <v>1.079655764717955</v>
       </c>
       <c r="C17">
-        <v>0.1508613991440342</v>
+        <v>0.1672812083976822</v>
       </c>
       <c r="D17">
-        <v>0.1295041723692947</v>
+        <v>0.1340580340362862</v>
       </c>
       <c r="E17">
-        <v>0.05458286127458933</v>
+        <v>0.05299217980195259</v>
       </c>
       <c r="F17">
-        <v>0.3288054702545438</v>
+        <v>0.3143033152645529</v>
       </c>
       <c r="G17">
-        <v>0.201950901860414</v>
+        <v>0.1844973187895889</v>
       </c>
       <c r="H17">
-        <v>0.1255913102557429</v>
+        <v>0.1254666793853687</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.196707378794521</v>
+        <v>0.2207714778925833</v>
       </c>
       <c r="K17">
-        <v>0.1521920015394045</v>
+        <v>0.1432204258540715</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09265342351204708</v>
       </c>
       <c r="M17">
-        <v>1.172418470207361</v>
+        <v>0.03176906948685243</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2318822615916787</v>
+        <v>1.167723841429904</v>
       </c>
       <c r="P17">
-        <v>0.6435716204503947</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7897778468366283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2316440230763313</v>
+      </c>
+      <c r="R17">
+        <v>0.6620370067159058</v>
+      </c>
+      <c r="S17">
+        <v>0.7530671129703563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.085546897548852</v>
+        <v>1.044529743443121</v>
       </c>
       <c r="C18">
-        <v>0.149715727760622</v>
+        <v>0.1673844254105887</v>
       </c>
       <c r="D18">
-        <v>0.1211697951104469</v>
+        <v>0.1254758090547483</v>
       </c>
       <c r="E18">
-        <v>0.1058696132145194</v>
+        <v>0.1041661908589582</v>
       </c>
       <c r="F18">
-        <v>0.3479197006276138</v>
+        <v>0.3331097418370348</v>
       </c>
       <c r="G18">
-        <v>0.2209018467173323</v>
+        <v>0.1981313966628733</v>
       </c>
       <c r="H18">
-        <v>0.0728710806329218</v>
+        <v>0.07274669401406442</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2076919696984518</v>
+        <v>0.2358483110267713</v>
       </c>
       <c r="K18">
-        <v>0.1636186764729004</v>
+        <v>0.1534823322022181</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0971486901465255</v>
       </c>
       <c r="M18">
-        <v>1.141668399387839</v>
+        <v>0.03471736037363193</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3288760990611692</v>
+        <v>1.138486104288916</v>
       </c>
       <c r="P18">
-        <v>0.6325617890583963</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8529033260478514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3287646249199483</v>
+      </c>
+      <c r="R18">
+        <v>0.6481780984292911</v>
+      </c>
+      <c r="S18">
+        <v>0.8141048535524789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.066582663231827</v>
+        <v>1.022707601557926</v>
       </c>
       <c r="C19">
-        <v>0.1512298646819659</v>
+        <v>0.1710294066444646</v>
       </c>
       <c r="D19">
-        <v>0.1134952131680507</v>
+        <v>0.1179053953939047</v>
       </c>
       <c r="E19">
-        <v>0.2273047791710994</v>
+        <v>0.2253145361270441</v>
       </c>
       <c r="F19">
-        <v>0.3771124244181578</v>
+        <v>0.3603072868823034</v>
       </c>
       <c r="G19">
-        <v>0.2482226950977946</v>
+        <v>0.2219527125373304</v>
       </c>
       <c r="H19">
-        <v>0.02832978417041687</v>
+        <v>0.02817821330276615</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.222097399771009</v>
+        <v>0.2506044207676794</v>
       </c>
       <c r="K19">
-        <v>0.178374935096997</v>
+        <v>0.166079269110341</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1021497069170163</v>
       </c>
       <c r="M19">
-        <v>1.128558680373629</v>
+        <v>0.03923866635326334</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4861433449847823</v>
+        <v>1.125880473924724</v>
       </c>
       <c r="P19">
-        <v>0.6182763794119381</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9409857782049755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4860333636172385</v>
+      </c>
+      <c r="R19">
+        <v>0.6315645233955465</v>
+      </c>
+      <c r="S19">
+        <v>0.89516023675273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.092465592115275</v>
+        <v>1.038839119331669</v>
       </c>
       <c r="C20">
-        <v>0.1601847481312717</v>
+        <v>0.184676155104313</v>
       </c>
       <c r="D20">
-        <v>0.1077551049070706</v>
+        <v>0.1131222334853277</v>
       </c>
       <c r="E20">
-        <v>0.5356341516061534</v>
+        <v>0.5330305926641046</v>
       </c>
       <c r="F20">
-        <v>0.4337161315229494</v>
+        <v>0.4100753328875228</v>
       </c>
       <c r="G20">
-        <v>0.2981075720747057</v>
+        <v>0.2743045805557429</v>
       </c>
       <c r="H20">
-        <v>0.004846102774679117</v>
+        <v>0.004574679823999617</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2455722129336664</v>
+        <v>0.2623435306924193</v>
       </c>
       <c r="K20">
-        <v>0.2018469162836176</v>
+        <v>0.1843999436415196</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1076133079419765</v>
       </c>
       <c r="M20">
-        <v>1.165211938399636</v>
+        <v>0.04847234675353107</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.806328749770401</v>
+        <v>1.160565173516318</v>
       </c>
       <c r="P20">
-        <v>0.5933896522379101</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.096030630129505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8055768815530087</v>
+      </c>
+      <c r="R20">
+        <v>0.6047204459032685</v>
+      </c>
+      <c r="S20">
+        <v>1.028442802002246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.225330112434506</v>
+        <v>1.152380070389881</v>
       </c>
       <c r="C21">
-        <v>0.177256313253281</v>
+        <v>0.2027882514401398</v>
       </c>
       <c r="D21">
-        <v>0.1194322275459854</v>
+        <v>0.1285705556036447</v>
       </c>
       <c r="E21">
-        <v>0.6268574716098883</v>
+        <v>0.6249342814799803</v>
       </c>
       <c r="F21">
-        <v>0.4708323997503854</v>
+        <v>0.4291188191274244</v>
       </c>
       <c r="G21">
-        <v>0.3221476211725616</v>
+        <v>0.355056482680439</v>
       </c>
       <c r="H21">
-        <v>0.007273501646498315</v>
+        <v>0.006789398798367763</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2520787377672917</v>
+        <v>0.2046345061144379</v>
       </c>
       <c r="K21">
-        <v>0.2056527240558275</v>
+        <v>0.1799950783943984</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1012855158927231</v>
       </c>
       <c r="M21">
-        <v>1.304694149178118</v>
+        <v>0.05404763668623147</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9342814863190867</v>
+        <v>1.284782704252251</v>
       </c>
       <c r="P21">
-        <v>0.5633952802767936</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.160932078973332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9297385360995918</v>
+      </c>
+      <c r="R21">
+        <v>0.5814599644112519</v>
+      </c>
+      <c r="S21">
+        <v>1.040333019762741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.312892048219851</v>
+        <v>1.226840365112849</v>
       </c>
       <c r="C22">
-        <v>0.1882175748354058</v>
+        <v>0.2138953838264683</v>
       </c>
       <c r="D22">
-        <v>0.12750729669186</v>
+        <v>0.1393561379245654</v>
       </c>
       <c r="E22">
-        <v>0.6691670565087122</v>
+        <v>0.6678730257726784</v>
       </c>
       <c r="F22">
-        <v>0.4934263643520822</v>
+        <v>0.4390006782590987</v>
       </c>
       <c r="G22">
-        <v>0.3362006018191437</v>
+        <v>0.4144376813034256</v>
       </c>
       <c r="H22">
-        <v>0.008999056843840517</v>
+        <v>0.008357335401516397</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2555555252176873</v>
+        <v>0.1728939044430966</v>
       </c>
       <c r="K22">
-        <v>0.2073655552836939</v>
+        <v>0.1760986651697287</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09701226187538659</v>
       </c>
       <c r="M22">
-        <v>1.396121645758512</v>
+        <v>0.05748415833904019</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.002336803432215</v>
+        <v>1.36505119065319</v>
       </c>
       <c r="P22">
-        <v>0.5450274082115314</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.198200644482313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9950115392974226</v>
+      </c>
+      <c r="R22">
+        <v>0.5682701066573053</v>
+      </c>
+      <c r="S22">
+        <v>1.040539701970872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.266150289572579</v>
+        <v>1.187927162220745</v>
       </c>
       <c r="C23">
-        <v>0.1823668094574202</v>
+        <v>0.2085809354580164</v>
       </c>
       <c r="D23">
-        <v>0.123197450011304</v>
+        <v>0.1332803566799043</v>
       </c>
       <c r="E23">
-        <v>0.6465755063705245</v>
+        <v>0.6447683970343263</v>
       </c>
       <c r="F23">
-        <v>0.4813037717209809</v>
+        <v>0.4352039935860219</v>
       </c>
       <c r="G23">
-        <v>0.3286466307144025</v>
+        <v>0.3750216630142091</v>
       </c>
       <c r="H23">
-        <v>0.008058710844026318</v>
+        <v>0.007509384413566189</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2536686017086254</v>
+        <v>0.1940436159042136</v>
       </c>
       <c r="K23">
-        <v>0.206414269662023</v>
+        <v>0.1787624215817765</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09946121384863105</v>
       </c>
       <c r="M23">
-        <v>1.347318695644873</v>
+        <v>0.05588870200647378</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9659985471706634</v>
+        <v>1.3238605780966</v>
       </c>
       <c r="P23">
-        <v>0.5547681753699365</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.17813100546357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9605642494767324</v>
+      </c>
+      <c r="R23">
+        <v>0.5748299395098542</v>
+      </c>
+      <c r="S23">
+        <v>1.044807537211668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.089273291004474</v>
+        <v>1.035498472105019</v>
       </c>
       <c r="C24">
-        <v>0.1602155822685205</v>
+        <v>0.1849229575745994</v>
       </c>
       <c r="D24">
-        <v>0.106872453801131</v>
+        <v>0.1122192151624262</v>
       </c>
       <c r="E24">
-        <v>0.5612119081874596</v>
+        <v>0.5585623652839971</v>
       </c>
       <c r="F24">
-        <v>0.436744862275134</v>
+        <v>0.412977899961561</v>
       </c>
       <c r="G24">
-        <v>0.3011742751060851</v>
+        <v>0.2766667426017264</v>
       </c>
       <c r="H24">
-        <v>0.004907455651257719</v>
+        <v>0.004630843778863913</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.247191682912991</v>
+        <v>0.2644021563352368</v>
       </c>
       <c r="K24">
-        <v>0.2036042169720353</v>
+        <v>0.1859400869378085</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1082609237782943</v>
       </c>
       <c r="M24">
-        <v>1.162591547975865</v>
+        <v>0.04897706486081077</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8286903178772818</v>
+        <v>1.158086047511318</v>
       </c>
       <c r="P24">
-        <v>0.5930047417210957</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.105921384004958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8279506071834035</v>
+      </c>
+      <c r="R24">
+        <v>0.6039242913863099</v>
+      </c>
+      <c r="S24">
+        <v>1.037790029735049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8986073644650787</v>
+        <v>0.8615605065656666</v>
       </c>
       <c r="C25">
-        <v>0.1363135860038938</v>
+        <v>0.1528562212880473</v>
       </c>
       <c r="D25">
-        <v>0.08924165320287614</v>
+        <v>0.09291433911681679</v>
       </c>
       <c r="E25">
-        <v>0.4694090450612762</v>
+        <v>0.4676479381134158</v>
       </c>
       <c r="F25">
-        <v>0.3912826888877206</v>
+        <v>0.374395633701468</v>
       </c>
       <c r="G25">
-        <v>0.2737193154270159</v>
+        <v>0.2474946700789715</v>
       </c>
       <c r="H25">
-        <v>0.002288025705324159</v>
+        <v>0.002172979114615892</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2415254634161812</v>
+        <v>0.2668514813992857</v>
       </c>
       <c r="K25">
-        <v>0.2021286445191173</v>
+        <v>0.1880863397580868</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1162876604785286</v>
       </c>
       <c r="M25">
-        <v>0.9633571081011212</v>
+        <v>0.04057039227600612</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6810690396310761</v>
+        <v>0.9610873749228404</v>
       </c>
       <c r="P25">
-        <v>0.6369490497942234</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.035389045672119</v>
+        <v>0.6809349467602033</v>
+      </c>
+      <c r="R25">
+        <v>0.6420059938443927</v>
+      </c>
+      <c r="S25">
+        <v>0.9863283714936699</v>
       </c>
     </row>
   </sheetData>
